--- a/MarginRequirement.xlsx
+++ b/MarginRequirement.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ranjith\Personal Project\StockAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D53485AF-3075-47B4-9587-615FA0650CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7715F5C-F401-4C17-BC7F-71E7DB252C04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -436,7 +436,7 @@
   <dimension ref="C1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -452,7 +452,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="2">
-        <v>668219</v>
+        <v>771859</v>
       </c>
     </row>
     <row r="2" spans="3:11" x14ac:dyDescent="0.3">
@@ -470,7 +470,7 @@
       </c>
       <c r="D3">
         <f>K6 * D1</f>
-        <v>367520.45</v>
+        <v>424522.45</v>
       </c>
       <c r="J3" t="s">
         <v>10</v>
@@ -499,14 +499,14 @@
       </c>
       <c r="D5" s="1">
         <f>D3-D4-F5</f>
-        <v>292118.81400000001</v>
+        <v>344560.65399999998</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
       </c>
       <c r="F5" s="1">
         <f>(D3-D4) * K2</f>
-        <v>25401.636000000002</v>
+        <v>29961.796000000002</v>
       </c>
     </row>
     <row r="6" spans="3:11" x14ac:dyDescent="0.3">
@@ -515,7 +515,7 @@
       </c>
       <c r="D6" s="1">
         <f>D5+D4</f>
-        <v>342118.81400000001</v>
+        <v>394560.65399999998</v>
       </c>
       <c r="J6" t="s">
         <v>16</v>
@@ -530,7 +530,7 @@
       </c>
       <c r="D8" s="1">
         <f>D1-D3</f>
-        <v>300698.55</v>
+        <v>347336.55</v>
       </c>
     </row>
     <row r="9" spans="3:11" x14ac:dyDescent="0.3">
@@ -539,14 +539,14 @@
       </c>
       <c r="D9">
         <f>(D8 * 0.5) - F9</f>
-        <v>138321.33299999998</v>
+        <v>159774.81299999999</v>
       </c>
       <c r="E9" t="s">
         <v>7</v>
       </c>
       <c r="F9">
         <f>(D8 * 0.5) *K3</f>
-        <v>12027.941999999999</v>
+        <v>13893.462</v>
       </c>
     </row>
     <row r="10" spans="3:11" x14ac:dyDescent="0.3">
@@ -555,14 +555,14 @@
       </c>
       <c r="D10">
         <f>(D8 * 0.5) - F10</f>
-        <v>138321.33299999998</v>
+        <v>159774.81299999999</v>
       </c>
       <c r="E10" t="s">
         <v>7</v>
       </c>
       <c r="F10">
         <f>(D8 * 0.5) *K4</f>
-        <v>12027.941999999999</v>
+        <v>13893.462</v>
       </c>
     </row>
     <row r="11" spans="3:11" x14ac:dyDescent="0.3">
@@ -571,7 +571,7 @@
       </c>
       <c r="D11">
         <f>D9+D10</f>
-        <v>276642.66599999997</v>
+        <v>319549.62599999999</v>
       </c>
     </row>
     <row r="13" spans="3:11" x14ac:dyDescent="0.3">
@@ -580,7 +580,7 @@
       </c>
       <c r="D13" s="1">
         <f>D11+D6</f>
-        <v>618761.48</v>
+        <v>714110.28</v>
       </c>
     </row>
     <row r="14" spans="3:11" x14ac:dyDescent="0.3">
@@ -589,7 +589,7 @@
       </c>
       <c r="D14">
         <f>(D6/D13)*100</f>
-        <v>55.290903693617132</v>
+        <v>55.252061908421204</v>
       </c>
     </row>
     <row r="15" spans="3:11" x14ac:dyDescent="0.3">
@@ -598,7 +598,7 @@
       </c>
       <c r="D15">
         <f>(D11/D13)*100</f>
-        <v>44.709096306382868</v>
+        <v>44.747938091578796</v>
       </c>
     </row>
   </sheetData>
